--- a/data/trans_bre/P20_5_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P20_5_R-Estudios-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,91</t>
+          <t>21,19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>12,61</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,35%</t>
+          <t>43,62%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,96%</t>
+          <t>25,15%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 16,65</t>
+          <t>6,24; 35,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,53; 9,98</t>
+          <t>-2,93; 26,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 28,43</t>
+          <t>11,1; 93,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-20,0; 19,76</t>
+          <t>-5,05; 64,19</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,55</t>
+          <t>8,53</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>22,73%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>9,09%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 11,0</t>
+          <t>-0,59; 16,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 11,26</t>
+          <t>-6,47; 10,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 19,42</t>
+          <t>-1,37; 50,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 24,36</t>
+          <t>-15,83; 35,4</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>4,66</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,32</t>
+          <t>6,62</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>20,37%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 11,8</t>
+          <t>-4,96; 13,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 20,85</t>
+          <t>-1,16; 15,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 22,61</t>
+          <t>-11,94; 40,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,3; 49,67</t>
+          <t>-3,97; 52,48</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,32</t>
+          <t>8,12</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,55</t>
+          <t>13,43</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>20,69%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>46,45%</t>
         </is>
       </c>
     </row>
@@ -789,30 +789,98 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 10,19</t>
+          <t>2,83; 13,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 10,07</t>
+          <t>7,13; 19,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,69; 17,42</t>
+          <t>6,59; 36,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 20,77</t>
+          <t>22,6; 77,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8,67</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9,46</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>22,03%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>28,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4,96; 12,67</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5,15; 13,76</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11,9; 34,93</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>14,11; 44,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/P20_5_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P20_5_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>21,19</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>12,61</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>43,62%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>25,15%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>14.69519301394073</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>11.69979227339981</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.2478104192966832</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.2142028004707055</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>6,24; 35,07</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,93; 26,62</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>11,1; 93,01</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-5,05; 64,19</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>1.140791868079372</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.521363847072123</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>0.01746904292097029</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.04375805855504059</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>28.09674243851048</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>25.78609695634798</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.5623349851699546</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.5710603037532315</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>8,53</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,24</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>22,73%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>9,09%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,59; 16,72</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-6,47; 10,92</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,37; 50,47</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-15,83; 35,4</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>5.427929568698985</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.4443470253512105</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.09209595830819725</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.008397578648208908</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,66</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>6,62</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>12,35%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>20,37%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.925789262795272</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-9.862358033438573</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.07542213257239357</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.1659464120285151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,96; 13,69</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,16; 15,09</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-11,94; 40,94</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-3,97; 52,48</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>17.06253904221733</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>10.64732703565148</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.3388223805015384</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.2462631614372543</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,132 +716,139 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>8,12</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>13,43</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>20,69%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>46,45%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>5.177284959718198</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>9.644194650928583</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.08647579947045188</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.1901913195913953</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>2,83; 13,18</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>7,13; 19,95</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>6,59; 36,47</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>22,6; 77,86</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.055791346584597</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.197865537929798</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.09037928321837206</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.02162338199040566</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>16.23728371206827</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>20.23565662460546</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.3048340289173098</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.4576848622757952</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>8,67</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>9,46</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>22,03%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>28,17%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>4,96; 12,67</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>5,15; 13,76</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>11,9; 34,93</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>14,11; 44,09</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>7.413573188965872</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>6.07611873420394</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.1249856656088037</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.1156472038565492</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.9270769953894762</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.8350577564518775</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.01275046548091842</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.01764960557148013</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>14.95798909132524</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>12.21788125022121</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.2752862649560379</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.2525240322046687</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
